--- a/data/IEEE9/ieee9/ieee9_2050.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2050.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AF5302-F70E-4994-A999-36E71D1FB2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8ACC807-9A27-4957-B4FC-4C9C1056F19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="4845" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1725" yWindow="1620" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>780</v>
+        <v>750</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8391,7 +8391,7 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:Y9"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8718,7 +8718,7 @@
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>1.4112645149492546E-3</v>
+        <v>1.1760537624577122E-3</v>
       </c>
       <c r="E5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -8738,55 +8738,55 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0.85816403035567324</v>
+        <v>0.71513669196306096</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>17.001215598427354</v>
+        <v>14.167679665356129</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>44.361083935265611</v>
+        <v>36.967569946054674</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>55.360450763463461</v>
+        <v>46.133708969552885</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>61.489025326872067</v>
+        <v>51.240854439060058</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>62.629327054951084</v>
+        <v>52.191105879125907</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>61.47929048185059</v>
+        <v>51.232742068208822</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>52.494604553351003</v>
+        <v>43.745503794459168</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>34.689889823534784</v>
+        <v>28.908241519612321</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>8.4751474353113281</v>
+        <v>7.0626228627594401</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>6.6243028252720132E-2</v>
+        <v>5.5202523543933436E-2</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>5.7026606930602542E-3</v>
+        <v>4.7522172442168789E-3</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>4.3633994696900434E-3</v>
+        <v>3.6361662247417024E-3</v>
       </c>
       <c r="V5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -8819,7 +8819,7 @@
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>1.4112645149492546E-3</v>
+        <v>1.1760537624577122E-3</v>
       </c>
       <c r="E6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -8839,55 +8839,55 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0.85816403035567324</v>
+        <v>0.71513669196306096</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>17.001215598427354</v>
+        <v>14.167679665356129</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>44.361083935265611</v>
+        <v>36.967569946054674</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>55.360450763463461</v>
+        <v>46.133708969552885</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>61.489025326872067</v>
+        <v>51.240854439060058</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>62.629327054951084</v>
+        <v>52.191105879125907</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>61.47929048185059</v>
+        <v>51.232742068208822</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>52.494604553351003</v>
+        <v>43.745503794459168</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>34.689889823534784</v>
+        <v>28.908241519612321</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>8.4751474353113281</v>
+        <v>7.0626228627594401</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>6.6243028252720132E-2</v>
+        <v>5.5202523543933436E-2</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>5.7026606930602542E-3</v>
+        <v>4.7522172442168789E-3</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>4.3633994696900434E-3</v>
+        <v>3.6361662247417024E-3</v>
       </c>
       <c r="V6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="C5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>2.4528688524590161E-3</v>
+        <v>2.0440573770491802E-3</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -9567,51 +9567,51 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0.68760368852459008</v>
+        <v>0.57300307377049176</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>13.533639344262292</v>
+        <v>11.278032786885245</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>32.194549180327868</v>
+        <v>26.828790983606559</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>43.3242737704918</v>
+        <v>36.103561475409833</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>53.135645901639343</v>
+        <v>44.279704918032785</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>63.102762295081959</v>
+        <v>52.585635245901635</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>52.660641393442617</v>
+        <v>43.883867827868848</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>38.695038934426229</v>
+        <v>32.245865778688525</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>18.562485245901637</v>
+        <v>15.468737704918032</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>3.8779856557377044</v>
+        <v>3.2316547131147533</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>2.4786885245901634E-2</v>
+        <v>2.0655737704918027E-2</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>1.0844262295081966E-2</v>
+        <v>9.036885245901639E-3</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -9644,7 +9644,7 @@
       </c>
       <c r="C6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>2.4528688524590161E-3</v>
+        <v>2.0440573770491802E-3</v>
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -9668,51 +9668,51 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0.68760368852459008</v>
+        <v>0.57300307377049176</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>13.533639344262292</v>
+        <v>11.278032786885245</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>32.194549180327868</v>
+        <v>26.828790983606559</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>43.3242737704918</v>
+        <v>36.103561475409833</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>53.135645901639343</v>
+        <v>44.279704918032785</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>63.102762295081959</v>
+        <v>52.585635245901635</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>52.660641393442617</v>
+        <v>43.883867827868848</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>38.695038934426229</v>
+        <v>32.245865778688525</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>18.562485245901637</v>
+        <v>15.468737704918032</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>3.8779856557377044</v>
+        <v>3.2316547131147533</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>2.4786885245901634E-2</v>
+        <v>2.0655737704918027E-2</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>1.0844262295081966E-2</v>
+        <v>9.036885245901639E-3</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -10396,47 +10396,47 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0.74345102505694749</v>
+        <v>0.61954252088078954</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>16.234040432801823</v>
+        <v>13.528367027334852</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>37.795914009111613</v>
+        <v>31.496595007593012</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>54.505523917995447</v>
+        <v>45.42126993166287</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>56.110321753986319</v>
+        <v>46.75860146165526</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>53.27763382687926</v>
+        <v>44.398028189066046</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>41.712784738040995</v>
+        <v>34.760653948367498</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>32.131913439635532</v>
+        <v>26.776594533029609</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>13.634054669703872</v>
+        <v>11.361712224753227</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>2.4070472665148062</v>
+        <v>2.0058727220956718</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>3.9066059225512529E-3</v>
+        <v>3.2555049354593777E-3</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -10497,47 +10497,47 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0.74345102505694749</v>
+        <v>0.61954252088078954</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>16.234040432801823</v>
+        <v>13.528367027334852</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>37.795914009111613</v>
+        <v>31.496595007593012</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>54.505523917995447</v>
+        <v>45.42126993166287</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>56.110321753986319</v>
+        <v>46.75860146165526</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>53.27763382687926</v>
+        <v>44.398028189066046</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>41.712784738040995</v>
+        <v>34.760653948367498</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>32.131913439635532</v>
+        <v>26.776594533029609</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>13.634054669703872</v>
+        <v>11.361712224753227</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>2.4070472665148062</v>
+        <v>2.0058727220956718</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>3.9066059225512529E-3</v>
+        <v>3.2555049354593777E-3</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -13005,7 +13005,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13032,7 +13032,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="4">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -13043,7 +13043,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -22690,7 +22690,7 @@
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>1.7781932888360609E-3</v>
+        <v>1.4818277406967175E-3</v>
       </c>
       <c r="E5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -22710,55 +22710,55 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>1.0383784767303645</v>
+        <v>0.86531539727530382</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>21.59154381000274</v>
+        <v>17.992953175002281</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>57.225798276492633</v>
+        <v>47.688165230410526</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>71.968585992502511</v>
+        <v>59.973821660418757</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>74.401720645515198</v>
+        <v>62.001433871262662</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>81.418125171436415</v>
+        <v>67.848437642863672</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>79.308284721587256</v>
+        <v>66.09023726798938</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>66.668147782755767</v>
+        <v>55.556789818963139</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>42.668564482947787</v>
+        <v>35.557137069123158</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>10.678685768492272</v>
+        <v>8.8989048070768941</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>8.346621559842736E-2</v>
+        <v>6.955517966535614E-2</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>7.0712992593947154E-3</v>
+        <v>5.8927493828289292E-3</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>5.2797133583249523E-3</v>
+        <v>4.3997611319374604E-3</v>
       </c>
       <c r="V5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -22791,7 +22791,7 @@
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>1.7781932888360609E-3</v>
+        <v>1.4818277406967175E-3</v>
       </c>
       <c r="E6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -22811,55 +22811,55 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>1.0383784767303645</v>
+        <v>0.86531539727530382</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>21.59154381000274</v>
+        <v>17.992953175002281</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>57.225798276492633</v>
+        <v>47.688165230410526</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>71.968585992502511</v>
+        <v>59.973821660418757</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>74.401720645515198</v>
+        <v>62.001433871262662</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>81.418125171436415</v>
+        <v>67.848437642863672</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>79.308284721587256</v>
+        <v>66.09023726798938</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>66.668147782755767</v>
+        <v>55.556789818963139</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>42.668564482947787</v>
+        <v>35.557137069123158</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>10.678685768492272</v>
+        <v>8.8989048070768941</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>8.346621559842736E-2</v>
+        <v>6.955517966535614E-2</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>7.0712992593947154E-3</v>
+        <v>5.8927493828289292E-3</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>5.2797133583249523E-3</v>
+        <v>4.3997611319374604E-3</v>
       </c>
       <c r="V6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -23610,7 +23610,7 @@
       </c>
       <c r="C5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>3.1151434426229508E-3</v>
+        <v>2.5959528688524591E-3</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -23634,51 +23634,51 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0.89388479508196705</v>
+        <v>0.74490399590163925</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>17.458394754098361</v>
+        <v>14.548662295081966</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>41.530968442622957</v>
+        <v>34.609140368852465</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>55.021827688524588</v>
+        <v>45.851523073770494</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>69.076339672131141</v>
+        <v>57.563616393442622</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>82.033590983606544</v>
+        <v>68.361325819672118</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>68.458833811475401</v>
+        <v>57.049028176229506</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>47.207947499999996</v>
+        <v>39.33995625</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>23.57435626229508</v>
+        <v>19.645296885245902</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>4.9638216393442613</v>
+        <v>4.1365180327868849</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>2.9992131147540974E-2</v>
+        <v>2.4993442622950814E-2</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>1.3229999999999999E-2</v>
+        <v>1.1025E-2</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -23711,7 +23711,7 @@
       </c>
       <c r="C6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>3.1151434426229508E-3</v>
+        <v>2.5959528688524591E-3</v>
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -23735,51 +23735,51 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0.89388479508196705</v>
+        <v>0.74490399590163925</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>17.458394754098361</v>
+        <v>14.548662295081966</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>41.530968442622957</v>
+        <v>34.609140368852465</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>55.021827688524588</v>
+        <v>45.851523073770494</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>69.076339672131141</v>
+        <v>57.563616393442622</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>82.033590983606544</v>
+        <v>68.361325819672118</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>68.458833811475401</v>
+        <v>57.049028176229506</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>47.207947499999996</v>
+        <v>39.33995625</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>23.57435626229508</v>
+        <v>19.645296885245902</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>4.9638216393442613</v>
+        <v>4.1365180327868849</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>2.9992131147540974E-2</v>
+        <v>2.4993442622950814E-2</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>1.3229999999999999E-2</v>
+        <v>1.1025E-2</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -24463,47 +24463,47 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0.92187927107061485</v>
+        <v>0.76823272589217906</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>19.967869732346241</v>
+        <v>16.639891443621867</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>46.866933371298394</v>
+        <v>39.055777809415332</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>69.222015375854227</v>
+        <v>57.685012813211848</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>72.382315062642348</v>
+        <v>60.318595885535288</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>63.933160592255106</v>
+        <v>53.277633826879253</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>51.306725227790423</v>
+        <v>42.755604356492022</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>41.128849202733484</v>
+        <v>34.274041002277905</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>17.587930523917993</v>
+        <v>14.656608769931662</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>3.1050909738040997</v>
+        <v>2.5875758115034162</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>5.0785876993166288E-3</v>
+        <v>4.2321564160971905E-3</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -24564,47 +24564,47 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0.92187927107061485</v>
+        <v>0.76823272589217906</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>19.967869732346241</v>
+        <v>16.639891443621867</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>46.866933371298394</v>
+        <v>39.055777809415332</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>69.222015375854227</v>
+        <v>57.685012813211848</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>72.382315062642348</v>
+        <v>60.318595885535288</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>63.933160592255106</v>
+        <v>53.277633826879253</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>51.306725227790423</v>
+        <v>42.755604356492022</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>41.128849202733484</v>
+        <v>34.274041002277905</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>17.587930523917993</v>
+        <v>14.656608769931662</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>3.1050909738040997</v>
+        <v>2.5875758115034162</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>5.0785876993166288E-3</v>
+        <v>4.2321564160971905E-3</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>

--- a/data/IEEE9/ieee9/ieee9_2050.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8ACC807-9A27-4957-B4FC-4C9C1056F19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88556A10-CF3B-4BF7-B925-98B11C61CD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="1620" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11475" yWindow="5895" windowWidth="21600" windowHeight="12660" tabRatio="722" firstSheet="29" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13004,7 +13004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -13088,8 +13088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42CD27A-91A8-4D31-B70E-255219E25912}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:Y9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13330,76 +13330,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27071,9 +27071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6451C0BC-1134-43AA-AB38-9EE91B1398E3}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -27313,76 +27311,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE9/ieee9/ieee9_2050.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2050.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88556A10-CF3B-4BF7-B925-98B11C61CD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF47D55-B88C-4CEB-AA42-2C76ADE52AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11475" yWindow="5895" windowWidth="21600" windowHeight="12660" tabRatio="722" firstSheet="29" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/IEEE9/ieee9/ieee9_2050.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF47D55-B88C-4CEB-AA42-2C76ADE52AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4BEC0B-5D43-44C7-8896-179DC69D376D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="5895" windowWidth="21600" windowHeight="12660" tabRatio="722" firstSheet="29" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11475" yWindow="5895" windowWidth="21600" windowHeight="12660" tabRatio="722" firstSheet="17" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13088,8 +13088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42CD27A-91A8-4D31-B70E-255219E25912}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:Y4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13253,76 +13253,76 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -27071,7 +27071,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6451C0BC-1134-43AA-AB38-9EE91B1398E3}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:Y3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -27234,76 +27236,76 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE9/ieee9/ieee9_2050.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454DA502-8B6D-4B63-A31B-9BF572E92D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E3EEFF-2DB3-4E43-91DE-9EA47C227752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12690" yWindow="5085" windowWidth="21600" windowHeight="12735" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4335,7 +4335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>140</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8718,7 +8718,7 @@
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>3.9201792081923741E-4</v>
+        <v>7.8403584163847483E-4</v>
       </c>
       <c r="E5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -8738,55 +8738,55 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0.23837889732102033</v>
+        <v>0.47675779464204066</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>4.722559888452043</v>
+        <v>9.445119776904086</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>12.322523315351559</v>
+        <v>24.645046630703117</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>15.377902989850961</v>
+        <v>30.755805979701922</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>17.080284813020018</v>
+        <v>34.160569626040036</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>17.397035293041966</v>
+        <v>34.794070586083933</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>17.077580689402939</v>
+        <v>34.155161378805879</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>14.581834598153057</v>
+        <v>29.163669196306113</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>9.6360805065374411</v>
+        <v>19.272161013074882</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>2.3542076209198135</v>
+        <v>4.708415241839627</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>1.8400841181311148E-2</v>
+        <v>3.6801682362622296E-2</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>1.5840724147389595E-3</v>
+        <v>3.168144829477919E-3</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>1.2120554082472343E-3</v>
+        <v>2.4241108164944685E-3</v>
       </c>
       <c r="V5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -8819,7 +8819,7 @@
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>3.9201792081923741E-4</v>
+        <v>7.8403584163847483E-4</v>
       </c>
       <c r="E6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -8839,55 +8839,55 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0.23837889732102033</v>
+        <v>0.47675779464204066</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>4.722559888452043</v>
+        <v>9.445119776904086</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>12.322523315351559</v>
+        <v>24.645046630703117</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>15.377902989850961</v>
+        <v>30.755805979701922</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>17.080284813020018</v>
+        <v>34.160569626040036</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>17.397035293041966</v>
+        <v>34.794070586083933</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>17.077580689402939</v>
+        <v>34.155161378805879</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>14.581834598153057</v>
+        <v>29.163669196306113</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>9.6360805065374411</v>
+        <v>19.272161013074882</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>2.3542076209198135</v>
+        <v>4.708415241839627</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>1.8400841181311148E-2</v>
+        <v>3.6801682362622296E-2</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>1.5840724147389595E-3</v>
+        <v>3.168144829477919E-3</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>1.2120554082472343E-3</v>
+        <v>2.4241108164944685E-3</v>
       </c>
       <c r="V6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -8912,99 +8912,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>15.309174549423485</v>
+        <v>25.515290915705808</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>14.147906638307401</v>
+        <v>23.579844397179002</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>14.978958776446882</v>
+        <v>24.964931294078138</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>14.91373194895332</v>
+        <v>24.8562199149222</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>12.278640994066942</v>
+        <v>20.464401656778236</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>12.454154259487296</v>
+        <v>20.756923765812161</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>12.480930258591737</v>
+        <v>20.801550430986229</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>11.208153475875964</v>
+        <v>18.680255793126609</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>10.122226855479685</v>
+        <v>16.87037809246614</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>7.316923765812156</v>
+        <v>12.194872943020259</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>6.7487506996529714</v>
+        <v>11.247917832754952</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>4.5277062576961828</v>
+        <v>7.5461770961603047</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>3.7630945650957126</v>
+        <v>6.2718242751595206</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>3.603064480017911</v>
+        <v>6.0051074666965176</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>4.9986194447554011</v>
+        <v>8.3310324079256688</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>6.7619712022836653</v>
+        <v>11.269952003806109</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>7.5602527146535321</v>
+        <v>12.60042119108922</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>10.383295785290498</v>
+        <v>17.305492975484164</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>9.4444285234523662</v>
+        <v>15.740714205753944</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>8.978422702339639</v>
+        <v>14.964037837232732</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>11.846801606403226</v>
+        <v>19.744669344005374</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>14.169199317138698</v>
+        <v>23.615332195231165</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>13.396121683644912</v>
+        <v>22.326869472741521</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>19.041567222657562</v>
+        <v>31.735945371095937</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -9013,99 +9013,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>15.309174549423485</v>
+        <v>25.515290915705808</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>14.147906638307401</v>
+        <v>23.579844397179002</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>14.978958776446882</v>
+        <v>24.964931294078138</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>14.91373194895332</v>
+        <v>24.8562199149222</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>12.278640994066942</v>
+        <v>20.464401656778236</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>12.454154259487296</v>
+        <v>20.756923765812161</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>12.480930258591737</v>
+        <v>20.801550430986229</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>11.208153475875964</v>
+        <v>18.680255793126609</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>10.122226855479685</v>
+        <v>16.87037809246614</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>7.316923765812156</v>
+        <v>12.194872943020259</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>6.7487506996529714</v>
+        <v>11.247917832754952</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>4.5277062576961828</v>
+        <v>7.5461770961603047</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>3.7630945650957126</v>
+        <v>6.2718242751595206</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>3.603064480017911</v>
+        <v>6.0051074666965176</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>4.9986194447554011</v>
+        <v>8.3310324079256688</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>6.7619712022836653</v>
+        <v>11.269952003806109</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>7.5602527146535321</v>
+        <v>12.60042119108922</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>10.383295785290498</v>
+        <v>17.305492975484164</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>9.4444285234523662</v>
+        <v>15.740714205753944</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>8.978422702339639</v>
+        <v>14.964037837232732</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>11.846801606403226</v>
+        <v>19.744669344005374</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>14.169199317138698</v>
+        <v>23.615332195231165</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>13.396121683644912</v>
+        <v>22.326869472741521</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>19.041567222657562</v>
+        <v>31.735945371095937</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -9114,99 +9114,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>15.309174549423485</v>
+        <v>25.515290915705808</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>14.147906638307401</v>
+        <v>23.579844397179002</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>14.978958776446882</v>
+        <v>24.964931294078138</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>14.91373194895332</v>
+        <v>24.8562199149222</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>12.278640994066942</v>
+        <v>20.464401656778236</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>12.454154259487296</v>
+        <v>20.756923765812161</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>12.480930258591737</v>
+        <v>20.801550430986229</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>11.208153475875964</v>
+        <v>18.680255793126609</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>10.122226855479685</v>
+        <v>16.87037809246614</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>7.316923765812156</v>
+        <v>12.194872943020259</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>6.7487506996529714</v>
+        <v>11.247917832754952</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>4.5277062576961828</v>
+        <v>7.5461770961603047</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>3.7630945650957126</v>
+        <v>6.2718242751595206</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>3.603064480017911</v>
+        <v>6.0051074666965176</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>4.9986194447554011</v>
+        <v>8.3310324079256688</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>6.7619712022836653</v>
+        <v>11.269952003806109</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>7.5602527146535321</v>
+        <v>12.60042119108922</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>10.383295785290498</v>
+        <v>17.305492975484164</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>9.4444285234523662</v>
+        <v>15.740714205753944</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>8.978422702339639</v>
+        <v>14.964037837232732</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>11.846801606403226</v>
+        <v>19.744669344005374</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>14.169199317138698</v>
+        <v>23.615332195231165</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>13.396121683644912</v>
+        <v>22.326869472741521</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>19.041567222657562</v>
+        <v>31.735945371095937</v>
       </c>
     </row>
   </sheetData>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="C5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>6.8135245901639334E-4</v>
+        <v>1.3627049180327867E-3</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -9567,51 +9567,51 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0.19100102459016391</v>
+        <v>0.38200204918032782</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>3.7593442622950812</v>
+        <v>7.5186885245901625</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>8.9429303278688526</v>
+        <v>17.885860655737705</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>12.034520491803278</v>
+        <v>24.069040983606556</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>14.75990163934426</v>
+        <v>29.519803278688521</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>17.528545081967213</v>
+        <v>35.057090163934426</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>14.62795594262295</v>
+        <v>29.255911885245901</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>10.748621926229509</v>
+        <v>21.497243852459018</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>5.1562459016393438</v>
+        <v>10.312491803278688</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>1.0772182377049178</v>
+        <v>2.1544364754098355</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>6.885245901639343E-3</v>
+        <v>1.3770491803278686E-2</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>3.0122950819672129E-3</v>
+        <v>6.0245901639344257E-3</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -9644,7 +9644,7 @@
       </c>
       <c r="C6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>6.8135245901639334E-4</v>
+        <v>1.3627049180327867E-3</v>
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -9668,51 +9668,51 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0.19100102459016391</v>
+        <v>0.38200204918032782</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>3.7593442622950812</v>
+        <v>7.5186885245901625</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>8.9429303278688526</v>
+        <v>17.885860655737705</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>12.034520491803278</v>
+        <v>24.069040983606556</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>14.75990163934426</v>
+        <v>29.519803278688521</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>17.528545081967213</v>
+        <v>35.057090163934426</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>14.62795594262295</v>
+        <v>29.255911885245901</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>10.748621926229509</v>
+        <v>21.497243852459018</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>5.1562459016393438</v>
+        <v>10.312491803278688</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>1.0772182377049178</v>
+        <v>2.1544364754098355</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>6.885245901639343E-3</v>
+        <v>1.3770491803278686E-2</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>3.0122950819672129E-3</v>
+        <v>6.0245901639344257E-3</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -9741,99 +9741,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>20.777825135286914</v>
+        <v>34.629708558811522</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>18.270984978047785</v>
+        <v>30.451641630079639</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>15.037539245966911</v>
+        <v>25.062565409944852</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>13.018268582805797</v>
+        <v>21.69711430467633</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>12.136852601082296</v>
+        <v>20.228087668470494</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>9.7190075556463142</v>
+        <v>16.198345926077192</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>9.4624576271186438</v>
+        <v>15.770762711864405</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>8.5789095364508885</v>
+        <v>14.29818256075148</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>8.8422243210128642</v>
+        <v>14.737040535021439</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>9.3516630079640617</v>
+        <v>15.586105013273436</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>9.3603026725546243</v>
+        <v>15.600504454257708</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>10.97158604758015</v>
+        <v>18.285976745966916</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>10.976362186032263</v>
+        <v>18.293936976720442</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>11.128667934449663</v>
+        <v>18.547779890749439</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>12.531594279661018</v>
+        <v>20.885990466101699</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>10.344955074535431</v>
+        <v>17.241591790892386</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>10.716424469062689</v>
+        <v>17.860707448437815</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>11.347389345517664</v>
+        <v>18.912315575862774</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>9.8988913492954858</v>
+        <v>16.498152248825811</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>10.253058632836431</v>
+        <v>17.088431054727383</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>9.6081030477843576</v>
+        <v>16.013505079640598</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>8.7191382479068817</v>
+        <v>14.531897079844802</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>8.9365088319379211</v>
+        <v>14.894181386563202</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>9.7724188278537873</v>
+        <v>16.287364713089648</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -9842,99 +9842,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>20.777825135286914</v>
+        <v>34.629708558811522</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>18.270984978047785</v>
+        <v>30.451641630079639</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>15.037539245966911</v>
+        <v>25.062565409944852</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>13.018268582805797</v>
+        <v>21.69711430467633</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>12.136852601082296</v>
+        <v>20.228087668470494</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>9.7190075556463142</v>
+        <v>16.198345926077192</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>9.4624576271186438</v>
+        <v>15.770762711864405</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>8.5789095364508885</v>
+        <v>14.29818256075148</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>8.8422243210128642</v>
+        <v>14.737040535021439</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>9.3516630079640617</v>
+        <v>15.586105013273436</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>9.3603026725546243</v>
+        <v>15.600504454257708</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>10.97158604758015</v>
+        <v>18.285976745966916</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>10.976362186032263</v>
+        <v>18.293936976720442</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>11.128667934449663</v>
+        <v>18.547779890749439</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>12.531594279661018</v>
+        <v>20.885990466101699</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>10.344955074535431</v>
+        <v>17.241591790892386</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>10.716424469062689</v>
+        <v>17.860707448437815</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>11.347389345517664</v>
+        <v>18.912315575862774</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>9.8988913492954858</v>
+        <v>16.498152248825811</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>10.253058632836431</v>
+        <v>17.088431054727383</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>9.6081030477843576</v>
+        <v>16.013505079640598</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>8.7191382479068817</v>
+        <v>14.531897079844802</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>8.9365088319379211</v>
+        <v>14.894181386563202</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>9.7724188278537873</v>
+        <v>16.287364713089648</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -9943,99 +9943,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>20.777825135286914</v>
+        <v>34.629708558811522</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>18.270984978047785</v>
+        <v>30.451641630079639</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>15.037539245966911</v>
+        <v>25.062565409944852</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>13.018268582805797</v>
+        <v>21.69711430467633</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>12.136852601082296</v>
+        <v>20.228087668470494</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>9.7190075556463142</v>
+        <v>16.198345926077192</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>9.4624576271186438</v>
+        <v>15.770762711864405</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>8.5789095364508885</v>
+        <v>14.29818256075148</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>8.8422243210128642</v>
+        <v>14.737040535021439</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>9.3516630079640617</v>
+        <v>15.586105013273436</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>9.3603026725546243</v>
+        <v>15.600504454257708</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>10.97158604758015</v>
+        <v>18.285976745966916</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>10.976362186032263</v>
+        <v>18.293936976720442</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>11.128667934449663</v>
+        <v>18.547779890749439</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>12.531594279661018</v>
+        <v>20.885990466101699</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>10.344955074535431</v>
+        <v>17.241591790892386</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>10.716424469062689</v>
+        <v>17.860707448437815</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>11.347389345517664</v>
+        <v>18.912315575862774</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>9.8988913492954858</v>
+        <v>16.498152248825811</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>10.253058632836431</v>
+        <v>17.088431054727383</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>9.6081030477843576</v>
+        <v>16.013505079640598</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>8.7191382479068817</v>
+        <v>14.531897079844802</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>8.9365088319379211</v>
+        <v>14.894181386563202</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>9.7724188278537873</v>
+        <v>16.287364713089648</v>
       </c>
     </row>
   </sheetData>
@@ -10396,47 +10396,47 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0.20651417362692986</v>
+        <v>0.41302834725385973</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>4.509455675778284</v>
+        <v>9.018911351556568</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>10.498865002531003</v>
+        <v>20.997730005062007</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>15.14042331055429</v>
+        <v>30.28084662110858</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>15.586200487218422</v>
+        <v>31.172400974436844</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>14.799342729688684</v>
+        <v>29.598685459377368</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>11.586884649455833</v>
+        <v>23.173769298911665</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>8.9255315110098703</v>
+        <v>17.851063022019741</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>3.7872374082510754</v>
+        <v>7.5744748165021507</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0.66862424069855719</v>
+        <v>1.3372484813971144</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>1.0851683118197925E-3</v>
+        <v>2.170336623639585E-3</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -10497,47 +10497,47 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0.20651417362692986</v>
+        <v>0.41302834725385973</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>4.509455675778284</v>
+        <v>9.018911351556568</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>10.498865002531003</v>
+        <v>20.997730005062007</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>15.14042331055429</v>
+        <v>30.28084662110858</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>15.586200487218422</v>
+        <v>31.172400974436844</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>14.799342729688684</v>
+        <v>29.598685459377368</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>11.586884649455833</v>
+        <v>23.173769298911665</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>8.9255315110098703</v>
+        <v>17.851063022019741</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>3.7872374082510754</v>
+        <v>7.5744748165021507</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0.66862424069855719</v>
+        <v>1.3372484813971144</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>1.0851683118197925E-3</v>
+        <v>2.170336623639585E-3</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -10570,99 +10570,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>18.958460344250046</v>
+        <v>31.59743390708341</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>17.620294068386201</v>
+        <v>29.367156780643665</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>19.097324460820943</v>
+        <v>31.828874101368239</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>21.294199670179594</v>
+        <v>35.490332783632653</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>18.214325027699758</v>
+        <v>30.357208379499596</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>15.452366976732199</v>
+        <v>25.753944961220331</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>11.122170115179467</v>
+        <v>18.536950191965779</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>9.9007189054085387</v>
+        <v>16.501198175680898</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>10.101330619186269</v>
+        <v>16.835551031977118</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>9.8743857095003715</v>
+        <v>16.457309515833956</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>9.9889390347599782</v>
+        <v>16.648231724599963</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>10.506628617073359</v>
+        <v>17.511047695122265</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>9.6106993223221409</v>
+        <v>16.017832203870235</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>9.26134549975521</v>
+        <v>15.43557583292535</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>12.689878636398772</v>
+        <v>21.149797727331286</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>16.531676286428404</v>
+        <v>27.552793810714004</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>16.878352959365095</v>
+        <v>28.130588265608491</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>17.183220644695815</v>
+        <v>28.638701074493028</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>17.657055837563455</v>
+        <v>29.428426395939088</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>18.626975379422298</v>
+        <v>31.044958965703827</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>18.371550413563863</v>
+        <v>30.619250689273102</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>17.978957715993712</v>
+        <v>29.964929526656185</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>17.215136759514547</v>
+        <v>28.69189459919091</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>15.877829498312249</v>
+        <v>26.463049163853746</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -10671,99 +10671,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>18.958460344250046</v>
+        <v>31.59743390708341</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>17.620294068386201</v>
+        <v>29.367156780643665</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>19.097324460820943</v>
+        <v>31.828874101368239</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>21.294199670179594</v>
+        <v>35.490332783632653</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>18.214325027699758</v>
+        <v>30.357208379499596</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>15.452366976732199</v>
+        <v>25.753944961220331</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>11.122170115179467</v>
+        <v>18.536950191965779</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>9.9007189054085387</v>
+        <v>16.501198175680898</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>10.101330619186269</v>
+        <v>16.835551031977118</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>9.8743857095003715</v>
+        <v>16.457309515833956</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>9.9889390347599782</v>
+        <v>16.648231724599963</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>10.506628617073359</v>
+        <v>17.511047695122265</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>9.6106993223221409</v>
+        <v>16.017832203870235</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>9.26134549975521</v>
+        <v>15.43557583292535</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>12.689878636398772</v>
+        <v>21.149797727331286</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>16.531676286428404</v>
+        <v>27.552793810714004</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>16.878352959365095</v>
+        <v>28.130588265608491</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>17.183220644695815</v>
+        <v>28.638701074493028</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>17.657055837563455</v>
+        <v>29.428426395939088</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>18.626975379422298</v>
+        <v>31.044958965703827</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>18.371550413563863</v>
+        <v>30.619250689273102</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>17.978957715993712</v>
+        <v>29.964929526656185</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>17.215136759514547</v>
+        <v>28.69189459919091</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>15.877829498312249</v>
+        <v>26.463049163853746</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -10772,99 +10772,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>18.958460344250046</v>
+        <v>31.59743390708341</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>17.620294068386201</v>
+        <v>29.367156780643665</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>19.097324460820943</v>
+        <v>31.828874101368239</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>21.294199670179594</v>
+        <v>35.490332783632653</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>18.214325027699758</v>
+        <v>30.357208379499596</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>15.452366976732199</v>
+        <v>25.753944961220331</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>11.122170115179467</v>
+        <v>18.536950191965779</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>9.9007189054085387</v>
+        <v>16.501198175680898</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>10.101330619186269</v>
+        <v>16.835551031977118</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>9.8743857095003715</v>
+        <v>16.457309515833956</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>9.9889390347599782</v>
+        <v>16.648231724599963</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>10.506628617073359</v>
+        <v>17.511047695122265</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>9.6106993223221409</v>
+        <v>16.017832203870235</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>9.26134549975521</v>
+        <v>15.43557583292535</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>12.689878636398772</v>
+        <v>21.149797727331286</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>16.531676286428404</v>
+        <v>27.552793810714004</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>16.878352959365095</v>
+        <v>28.130588265608491</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>17.183220644695815</v>
+        <v>28.638701074493028</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>17.657055837563455</v>
+        <v>29.428426395939088</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>18.626975379422298</v>
+        <v>31.044958965703827</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>18.371550413563863</v>
+        <v>30.619250689273102</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>17.978957715993712</v>
+        <v>29.964929526656185</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>17.215136759514547</v>
+        <v>28.69189459919091</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>15.877829498312249</v>
+        <v>26.463049163853746</v>
       </c>
     </row>
   </sheetData>
@@ -13004,8 +13004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13032,7 +13032,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="4">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -13043,7 +13043,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="4">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -13054,7 +13054,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -13065,7 +13065,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="4">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -13076,7 +13076,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="4">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -22690,7 +22690,7 @@
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>4.9394258023223914E-4</v>
+        <v>9.8788516046447827E-4</v>
       </c>
       <c r="E5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -22710,55 +22710,55 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0.28843846575843463</v>
+        <v>0.57687693151686925</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>5.9976510583340943</v>
+        <v>11.995302116668189</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>15.896055076803508</v>
+        <v>31.792110153607016</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>19.991273886806251</v>
+        <v>39.982547773612502</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>20.667144623754222</v>
+        <v>41.334289247508444</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>22.616145880954559</v>
+        <v>45.232291761909117</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>22.030079089329792</v>
+        <v>44.060158178659584</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>18.518929939654381</v>
+        <v>37.037859879308762</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>11.852379023041053</v>
+        <v>23.704758046082105</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>2.9663016023589646</v>
+        <v>5.9326032047179291</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>2.3185059888452045E-2</v>
+        <v>4.6370119776904091E-2</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>1.96424979427631E-3</v>
+        <v>3.9284995885526201E-3</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>1.4665870439791533E-3</v>
+        <v>2.9331740879583066E-3</v>
       </c>
       <c r="V5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -22791,7 +22791,7 @@
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>4.9394258023223914E-4</v>
+        <v>9.8788516046447827E-4</v>
       </c>
       <c r="E6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -22811,55 +22811,55 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0.28843846575843463</v>
+        <v>0.57687693151686925</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>5.9976510583340943</v>
+        <v>11.995302116668189</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>15.896055076803508</v>
+        <v>31.792110153607016</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>19.991273886806251</v>
+        <v>39.982547773612502</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>20.667144623754222</v>
+        <v>41.334289247508444</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>22.616145880954559</v>
+        <v>45.232291761909117</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>22.030079089329792</v>
+        <v>44.060158178659584</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>18.518929939654381</v>
+        <v>37.037859879308762</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>11.852379023041053</v>
+        <v>23.704758046082105</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>2.9663016023589646</v>
+        <v>5.9326032047179291</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>2.3185059888452045E-2</v>
+        <v>4.6370119776904091E-2</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>1.96424979427631E-3</v>
+        <v>3.9284995885526201E-3</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>1.4665870439791533E-3</v>
+        <v>2.9331740879583066E-3</v>
       </c>
       <c r="V6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -22884,99 +22884,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>11.788064403056083</v>
+        <v>19.646774005093473</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>10.610929978730551</v>
+        <v>17.684883297884252</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>10.934639906806225</v>
+        <v>18.224399844677041</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>10.73788700324639</v>
+        <v>17.896478338743986</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>9.2089807455502051</v>
+        <v>15.348301242583675</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>8.7179079816411083</v>
+        <v>14.529846636068514</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>9.6103162991156381</v>
+        <v>16.017193831859398</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>8.7423597111832514</v>
+        <v>14.570599518638753</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>7.1867810673905765</v>
+        <v>11.97796844565096</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>5.1950158737266303</v>
+        <v>8.6583597895443845</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>5.3315130527258479</v>
+        <v>8.8858550878764131</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>3.3052255681182134</v>
+        <v>5.5087092801970226</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>2.7094280868689129</v>
+        <v>4.5157134781148551</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>2.8824515840143281</v>
+        <v>4.8040859733572141</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>3.8489369724616589</v>
+        <v>6.4148949541027651</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>4.8686192656442389</v>
+        <v>8.1143654427403984</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>5.745792063136685</v>
+        <v>9.5763201052278077</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>7.8913047968207781</v>
+        <v>13.152174661367964</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>7.1777656778237988</v>
+        <v>11.962942796372998</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>6.3746801186611437</v>
+        <v>10.62446686443524</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>9.4774412851225804</v>
+        <v>15.795735475204301</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>10.201823508339864</v>
+        <v>17.003039180566439</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>9.9131300458972351</v>
+        <v>16.521883409828725</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>14.471591089219748</v>
+        <v>24.119318482032913</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -22985,99 +22985,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>11.788064403056083</v>
+        <v>19.646774005093473</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>10.610929978730551</v>
+        <v>17.684883297884252</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>10.934639906806225</v>
+        <v>18.224399844677041</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>10.73788700324639</v>
+        <v>17.896478338743986</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>9.2089807455502051</v>
+        <v>15.348301242583675</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>8.7179079816411083</v>
+        <v>14.529846636068514</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>9.6103162991156381</v>
+        <v>16.017193831859398</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>8.7423597111832514</v>
+        <v>14.570599518638753</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>7.1867810673905765</v>
+        <v>11.97796844565096</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>5.1950158737266303</v>
+        <v>8.6583597895443845</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>5.3315130527258479</v>
+        <v>8.8858550878764131</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>3.3052255681182134</v>
+        <v>5.5087092801970226</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>2.7094280868689129</v>
+        <v>4.5157134781148551</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>2.8824515840143281</v>
+        <v>4.8040859733572141</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>3.8489369724616589</v>
+        <v>6.4148949541027651</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>4.8686192656442389</v>
+        <v>8.1143654427403984</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>5.745792063136685</v>
+        <v>9.5763201052278077</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>7.8913047968207781</v>
+        <v>13.152174661367964</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>7.1777656778237988</v>
+        <v>11.962942796372998</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>6.3746801186611437</v>
+        <v>10.62446686443524</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>9.4774412851225804</v>
+        <v>15.795735475204301</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>10.201823508339864</v>
+        <v>17.003039180566439</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>9.9131300458972351</v>
+        <v>16.521883409828725</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>14.471591089219748</v>
+        <v>24.119318482032913</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -23086,99 +23086,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>11.788064403056083</v>
+        <v>19.646774005093473</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>10.610929978730551</v>
+        <v>17.684883297884252</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>10.934639906806225</v>
+        <v>18.224399844677041</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>10.73788700324639</v>
+        <v>17.896478338743986</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>9.2089807455502051</v>
+        <v>15.348301242583675</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>8.7179079816411083</v>
+        <v>14.529846636068514</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>9.6103162991156381</v>
+        <v>16.017193831859398</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>8.7423597111832514</v>
+        <v>14.570599518638753</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>7.1867810673905765</v>
+        <v>11.97796844565096</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>5.1950158737266303</v>
+        <v>8.6583597895443845</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>5.3315130527258479</v>
+        <v>8.8858550878764131</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>3.3052255681182134</v>
+        <v>5.5087092801970226</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>2.7094280868689129</v>
+        <v>4.5157134781148551</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>2.8824515840143281</v>
+        <v>4.8040859733572141</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>3.8489369724616589</v>
+        <v>6.4148949541027651</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>4.8686192656442389</v>
+        <v>8.1143654427403984</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>5.745792063136685</v>
+        <v>9.5763201052278077</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>7.8913047968207781</v>
+        <v>13.152174661367964</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>7.1777656778237988</v>
+        <v>11.962942796372998</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>6.3746801186611437</v>
+        <v>10.62446686443524</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>9.4774412851225804</v>
+        <v>15.795735475204301</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>10.201823508339864</v>
+        <v>17.003039180566439</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>9.9131300458972351</v>
+        <v>16.521883409828725</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>14.471591089219748</v>
+        <v>24.119318482032913</v>
       </c>
     </row>
   </sheetData>
@@ -23610,7 +23610,7 @@
       </c>
       <c r="C5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>8.6531762295081961E-4</v>
+        <v>1.7306352459016392E-3</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -23634,51 +23634,51 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0.24830133196721307</v>
+        <v>0.49660266393442615</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>4.8495540983606551</v>
+        <v>9.6991081967213102</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>11.53638012295082</v>
+        <v>23.072760245901641</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>15.283841024590163</v>
+        <v>30.567682049180327</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>19.18787213114754</v>
+        <v>38.375744262295079</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>22.787108606557375</v>
+        <v>45.57421721311475</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>19.016342725409835</v>
+        <v>38.03268545081967</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>13.113318749999999</v>
+        <v>26.226637499999999</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>6.5484322950819669</v>
+        <v>13.096864590163934</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>1.3788393442622948</v>
+        <v>2.7576786885245896</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>8.331147540983604E-3</v>
+        <v>1.6662295081967208E-2</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>3.6749999999999999E-3</v>
+        <v>7.3499999999999998E-3</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -23711,7 +23711,7 @@
       </c>
       <c r="C6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>8.6531762295081961E-4</v>
+        <v>1.7306352459016392E-3</v>
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -23735,51 +23735,51 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0.24830133196721307</v>
+        <v>0.49660266393442615</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>4.8495540983606551</v>
+        <v>9.6991081967213102</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>11.53638012295082</v>
+        <v>23.072760245901641</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>15.283841024590163</v>
+        <v>30.567682049180327</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>19.18787213114754</v>
+        <v>38.375744262295079</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>22.787108606557375</v>
+        <v>45.57421721311475</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>19.016342725409835</v>
+        <v>38.03268545081967</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>13.113318749999999</v>
+        <v>26.226637499999999</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>6.5484322950819669</v>
+        <v>13.096864590163934</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>1.3788393442622948</v>
+        <v>2.7576786885245896</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>8.331147540983604E-3</v>
+        <v>1.6662295081967208E-2</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>3.6749999999999999E-3</v>
+        <v>7.3499999999999998E-3</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -23808,99 +23808,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>15.583368851465186</v>
+        <v>25.972281419108644</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>12.789689484633449</v>
+        <v>21.31614914105575</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>11.578905219394523</v>
+        <v>19.298175365657539</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>10.154249494588523</v>
+        <v>16.923749157647539</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>9.1026394508117221</v>
+        <v>15.171065751352868</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>7.7752060445170512</v>
+        <v>12.958676740861751</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>7.2860923728813551</v>
+        <v>12.143487288135592</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>6.7773385337962013</v>
+        <v>11.295564222993669</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>6.3664015111292613</v>
+        <v>10.610669185215436</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>7.1072638860526869</v>
+        <v>11.845439810087811</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>6.645814897513783</v>
+        <v>11.076358162522972</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>7.6801102333061051</v>
+        <v>12.800183722176842</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>8.4517988832448445</v>
+        <v>14.08633147207474</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>8.1239275921482541</v>
+        <v>13.539879320247088</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>9.2733797669491533</v>
+        <v>15.455632944915257</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>8.1725145088829905</v>
+        <v>13.620857514804985</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>7.7158256177251356</v>
+        <v>12.859709362875227</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>7.9431725418623635</v>
+        <v>13.238620903103939</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>7.6221463389575232</v>
+        <v>12.703577231595872</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>7.9973857336124166</v>
+        <v>13.328976222687361</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>7.4943203772717997</v>
+        <v>12.490533962119665</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>6.3649709209720235</v>
+        <v>10.608284868286706</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>7.1492070655503364</v>
+        <v>11.915345109250561</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>6.8406931794976513</v>
+        <v>11.401155299162752</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -23909,99 +23909,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>15.583368851465186</v>
+        <v>25.972281419108644</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>12.789689484633449</v>
+        <v>21.31614914105575</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>11.578905219394523</v>
+        <v>19.298175365657539</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>10.154249494588523</v>
+        <v>16.923749157647539</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>9.1026394508117221</v>
+        <v>15.171065751352868</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>7.7752060445170512</v>
+        <v>12.958676740861751</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>7.2860923728813551</v>
+        <v>12.143487288135592</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>6.7773385337962013</v>
+        <v>11.295564222993669</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>6.3664015111292613</v>
+        <v>10.610669185215436</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>7.1072638860526869</v>
+        <v>11.845439810087811</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>6.645814897513783</v>
+        <v>11.076358162522972</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>7.6801102333061051</v>
+        <v>12.800183722176842</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>8.4517988832448445</v>
+        <v>14.08633147207474</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>8.1239275921482541</v>
+        <v>13.539879320247088</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>9.2733797669491533</v>
+        <v>15.455632944915257</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>8.1725145088829905</v>
+        <v>13.620857514804985</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>7.7158256177251356</v>
+        <v>12.859709362875227</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>7.9431725418623635</v>
+        <v>13.238620903103939</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>7.6221463389575232</v>
+        <v>12.703577231595872</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>7.9973857336124166</v>
+        <v>13.328976222687361</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>7.4943203772717997</v>
+        <v>12.490533962119665</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>6.3649709209720235</v>
+        <v>10.608284868286706</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>7.1492070655503364</v>
+        <v>11.915345109250561</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>6.8406931794976513</v>
+        <v>11.401155299162752</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -24010,99 +24010,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>15.583368851465186</v>
+        <v>25.972281419108644</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>12.789689484633449</v>
+        <v>21.31614914105575</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>11.578905219394523</v>
+        <v>19.298175365657539</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>10.154249494588523</v>
+        <v>16.923749157647539</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>9.1026394508117221</v>
+        <v>15.171065751352868</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>7.7752060445170512</v>
+        <v>12.958676740861751</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>7.2860923728813551</v>
+        <v>12.143487288135592</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>6.7773385337962013</v>
+        <v>11.295564222993669</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>6.3664015111292613</v>
+        <v>10.610669185215436</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>7.1072638860526869</v>
+        <v>11.845439810087811</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>6.645814897513783</v>
+        <v>11.076358162522972</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>7.6801102333061051</v>
+        <v>12.800183722176842</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>8.4517988832448445</v>
+        <v>14.08633147207474</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>8.1239275921482541</v>
+        <v>13.539879320247088</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>9.2733797669491533</v>
+        <v>15.455632944915257</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>8.1725145088829905</v>
+        <v>13.620857514804985</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>7.7158256177251356</v>
+        <v>12.859709362875227</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>7.9431725418623635</v>
+        <v>13.238620903103939</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>7.6221463389575232</v>
+        <v>12.703577231595872</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>7.9973857336124166</v>
+        <v>13.328976222687361</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>7.4943203772717997</v>
+        <v>12.490533962119665</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>6.3649709209720235</v>
+        <v>10.608284868286706</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>7.1492070655503364</v>
+        <v>11.915345109250561</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>6.8406931794976513</v>
+        <v>11.401155299162752</v>
       </c>
     </row>
   </sheetData>
@@ -24463,47 +24463,47 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0.256077575297393</v>
+        <v>0.512155150594786</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>5.5466304812072886</v>
+        <v>11.093260962414577</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>13.018592603138442</v>
+        <v>26.037185206276884</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>19.228337604403951</v>
+        <v>38.456675208807901</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>20.106198628511763</v>
+        <v>40.212397257023525</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>17.75921127562642</v>
+        <v>35.51842255125284</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>14.251868118830673</v>
+        <v>28.503736237661347</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>11.424680334092633</v>
+        <v>22.849360668185266</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>4.8855362566438876</v>
+        <v>9.7710725132877752</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>0.86252527050113881</v>
+        <v>1.7250505410022776</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>1.4107188053657303E-3</v>
+        <v>2.8214376107314606E-3</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -24564,47 +24564,47 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0.256077575297393</v>
+        <v>0.512155150594786</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>5.5466304812072886</v>
+        <v>11.093260962414577</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>13.018592603138442</v>
+        <v>26.037185206276884</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>19.228337604403951</v>
+        <v>38.456675208807901</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>20.106198628511763</v>
+        <v>40.212397257023525</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>17.75921127562642</v>
+        <v>35.51842255125284</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>14.251868118830673</v>
+        <v>28.503736237661347</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>11.424680334092633</v>
+        <v>22.849360668185266</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>4.8855362566438876</v>
+        <v>9.7710725132877752</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>0.86252527050113881</v>
+        <v>1.7250505410022776</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>1.4107188053657303E-3</v>
+        <v>2.8214376107314606E-3</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -24637,99 +24637,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>13.460506844417534</v>
+        <v>22.434178074029223</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>12.510408788554201</v>
+        <v>20.850681314257002</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>15.086886324048546</v>
+        <v>25.144810540080908</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>15.331823762529307</v>
+        <v>25.55303960421551</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>13.660743770774818</v>
+        <v>22.767906284624697</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>12.052846241851116</v>
+        <v>20.088077069751858</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>8.786514390991778</v>
+        <v>14.644190651652963</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>7.5245463681104905</v>
+        <v>12.540910613517484</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>7.7780245767734275</v>
+        <v>12.96337429462238</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>7.3070454250302754</v>
+        <v>12.178409041717126</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>7.9911512278079826</v>
+        <v>13.31858537967997</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>8.3002366074879532</v>
+        <v>13.833727679146591</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>6.8235965188487206</v>
+        <v>11.372660864747868</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>7.2238494898090639</v>
+        <v>12.039749149681773</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>9.2636114045711047</v>
+        <v>15.439352340951839</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>12.068123689092735</v>
+        <v>20.113539481821224</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>11.814847071555567</v>
+        <v>19.691411785925943</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>12.715583277074904</v>
+        <v>21.192638795124839</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>12.359939086294418</v>
+        <v>20.599898477157364</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>13.970231534566723</v>
+        <v>23.283719224277871</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>14.146093818444175</v>
+        <v>23.57682303074029</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>13.66400786415522</v>
+        <v>22.773346440258702</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>12.567049834445619</v>
+        <v>20.945083057409363</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>12.22592871370043</v>
+        <v>20.376547856167385</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -24738,99 +24738,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>13.460506844417534</v>
+        <v>22.434178074029223</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>12.510408788554201</v>
+        <v>20.850681314257002</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>15.086886324048546</v>
+        <v>25.144810540080908</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>15.331823762529307</v>
+        <v>25.55303960421551</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>13.660743770774818</v>
+        <v>22.767906284624697</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>12.052846241851116</v>
+        <v>20.088077069751858</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>8.786514390991778</v>
+        <v>14.644190651652963</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>7.5245463681104905</v>
+        <v>12.540910613517484</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>7.7780245767734275</v>
+        <v>12.96337429462238</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>7.3070454250302754</v>
+        <v>12.178409041717126</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>7.9911512278079826</v>
+        <v>13.31858537967997</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>8.3002366074879532</v>
+        <v>13.833727679146591</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>6.8235965188487206</v>
+        <v>11.372660864747868</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>7.2238494898090639</v>
+        <v>12.039749149681773</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>9.2636114045711047</v>
+        <v>15.439352340951839</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>12.068123689092735</v>
+        <v>20.113539481821224</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>11.814847071555567</v>
+        <v>19.691411785925943</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>12.715583277074904</v>
+        <v>21.192638795124839</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>12.359939086294418</v>
+        <v>20.599898477157364</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>13.970231534566723</v>
+        <v>23.283719224277871</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>14.146093818444175</v>
+        <v>23.57682303074029</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>13.66400786415522</v>
+        <v>22.773346440258702</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>12.567049834445619</v>
+        <v>20.945083057409363</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>12.22592871370043</v>
+        <v>20.376547856167385</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -24839,99 +24839,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>13.460506844417534</v>
+        <v>22.434178074029223</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>12.510408788554201</v>
+        <v>20.850681314257002</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>15.086886324048546</v>
+        <v>25.144810540080908</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>15.331823762529307</v>
+        <v>25.55303960421551</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>13.660743770774818</v>
+        <v>22.767906284624697</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>12.052846241851116</v>
+        <v>20.088077069751858</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>8.786514390991778</v>
+        <v>14.644190651652963</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>7.5245463681104905</v>
+        <v>12.540910613517484</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>7.7780245767734275</v>
+        <v>12.96337429462238</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>7.3070454250302754</v>
+        <v>12.178409041717126</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>7.9911512278079826</v>
+        <v>13.31858537967997</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>8.3002366074879532</v>
+        <v>13.833727679146591</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>6.8235965188487206</v>
+        <v>11.372660864747868</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>7.2238494898090639</v>
+        <v>12.039749149681773</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>9.2636114045711047</v>
+        <v>15.439352340951839</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>12.068123689092735</v>
+        <v>20.113539481821224</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>11.814847071555567</v>
+        <v>19.691411785925943</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>12.715583277074904</v>
+        <v>21.192638795124839</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>12.359939086294418</v>
+        <v>20.599898477157364</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>13.970231534566723</v>
+        <v>23.283719224277871</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>14.146093818444175</v>
+        <v>23.57682303074029</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>13.66400786415522</v>
+        <v>22.773346440258702</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>12.567049834445619</v>
+        <v>20.945083057409363</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>12.22592871370043</v>
+        <v>20.376547856167385</v>
       </c>
     </row>
   </sheetData>
